--- a/etc/MapConcepts.xlsx
+++ b/etc/MapConcepts.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Level3" sheetId="1" r:id="rId1"/>
+    <sheet name="Level2" sheetId="4" r:id="rId1"/>
+    <sheet name="Level0" sheetId="3" r:id="rId2"/>
+    <sheet name="Level1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="1">
   <si>
     <t>d</t>
   </si>
@@ -33,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +46,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -116,6 +132,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,8 +421,2464 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="32" width="4.7109375" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>16</v>
+      </c>
+      <c r="T2">
+        <v>17</v>
+      </c>
+      <c r="U2">
+        <v>18</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>20</v>
+      </c>
+      <c r="X2">
+        <v>21</v>
+      </c>
+      <c r="Y2">
+        <v>22</v>
+      </c>
+      <c r="Z2">
+        <v>23</v>
+      </c>
+      <c r="AA2">
+        <v>24</v>
+      </c>
+      <c r="AB2">
+        <v>25</v>
+      </c>
+      <c r="AC2">
+        <v>26</v>
+      </c>
+      <c r="AD2">
+        <v>27</v>
+      </c>
+      <c r="AE2">
+        <v>28</v>
+      </c>
+      <c r="AF2">
+        <v>29</v>
+      </c>
+      <c r="AG2">
+        <v>30</v>
+      </c>
+      <c r="AH2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AR4" s="1"/>
+    </row>
+    <row r="5" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1"/>
+    </row>
+    <row r="7" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AS7" s="1"/>
+    </row>
+    <row r="8" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1"/>
+      <c r="AR8" s="1"/>
+    </row>
+    <row r="9" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1"/>
+      <c r="AR10" s="1"/>
+    </row>
+    <row r="11" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AS11" s="1"/>
+    </row>
+    <row r="12" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1"/>
+    </row>
+    <row r="13" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AQ13" s="1"/>
+    </row>
+    <row r="14" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1"/>
+      <c r="AR14" s="1"/>
+    </row>
+    <row r="15" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14"/>
+      <c r="W19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14"/>
+      <c r="T21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+      <c r="X21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AS22"/>
+  <sheetViews>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="32" width="4.7109375" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>16</v>
+      </c>
+      <c r="T2">
+        <v>17</v>
+      </c>
+      <c r="U2">
+        <v>18</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>20</v>
+      </c>
+      <c r="X2">
+        <v>21</v>
+      </c>
+      <c r="Y2">
+        <v>22</v>
+      </c>
+      <c r="Z2">
+        <v>23</v>
+      </c>
+      <c r="AA2">
+        <v>24</v>
+      </c>
+      <c r="AB2">
+        <v>25</v>
+      </c>
+      <c r="AC2">
+        <v>26</v>
+      </c>
+      <c r="AD2">
+        <v>27</v>
+      </c>
+      <c r="AE2">
+        <v>28</v>
+      </c>
+      <c r="AF2">
+        <v>29</v>
+      </c>
+      <c r="AG2">
+        <v>30</v>
+      </c>
+      <c r="AH2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AR4" s="1"/>
+    </row>
+    <row r="5" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1"/>
+    </row>
+    <row r="7" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AS7" s="1"/>
+    </row>
+    <row r="8" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1"/>
+      <c r="AR8" s="1"/>
+    </row>
+    <row r="9" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1"/>
+      <c r="AR10" s="1"/>
+    </row>
+    <row r="11" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AS11" s="1"/>
+    </row>
+    <row r="12" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1"/>
+    </row>
+    <row r="13" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AQ13" s="1"/>
+    </row>
+    <row r="14" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1"/>
+      <c r="AR14" s="1"/>
+    </row>
+    <row r="15" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AS22"/>
+  <sheetViews>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/etc/MapConcepts.xlsx
+++ b/etc/MapConcepts.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="1">
   <si>
     <t>d</t>
   </si>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -139,6 +147,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,105 +443,105 @@
   <sheetData>
     <row r="1" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="17">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="17">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="17">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="17">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="17">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="17">
         <v>7</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="17">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="17">
         <v>9</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="17">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="17">
         <v>11</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="17">
         <v>12</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="17">
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="17">
         <v>14</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="17">
         <v>15</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="17">
         <v>16</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="17">
         <v>17</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="17">
         <v>18</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="17">
         <v>19</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="17">
         <v>20</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="17">
         <v>21</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="17">
         <v>22</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="17">
         <v>23</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="17">
         <v>24</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="17">
         <v>25</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="17">
         <v>26</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="17">
         <v>27</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="17">
         <v>28</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="17">
         <v>29</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="17">
         <v>30</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="17">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="17">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -634,7 +643,7 @@
       <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -648,29 +657,65 @@
         <v>0</v>
       </c>
       <c r="I4" s="15"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
+      <c r="P4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AG4" s="12"/>
       <c r="AH4" s="2" t="s">
         <v>0</v>
@@ -679,7 +724,7 @@
       <c r="AR4" s="1"/>
     </row>
     <row r="5" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -695,11 +740,15 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="M5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="O5" s="12"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="12"/>
@@ -728,7 +777,7 @@
       <c r="AQ5" s="1"/>
     </row>
     <row r="6" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -756,7 +805,9 @@
       <c r="M6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -782,7 +833,7 @@
       <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -800,7 +851,9 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="O7" s="12"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="12"/>
@@ -827,7 +880,7 @@
       <c r="AS7" s="1"/>
     </row>
     <row r="8" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -845,25 +898,63 @@
       <c r="K8" s="14"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
+      <c r="N8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AG8" s="12"/>
       <c r="AH8" s="2" t="s">
         <v>0</v>
@@ -872,7 +963,7 @@
       <c r="AR8" s="1"/>
     </row>
     <row r="9" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -885,7 +976,9 @@
         <v>0</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="16" t="s">
         <v>0</v>
       </c>
@@ -925,7 +1018,7 @@
       <c r="AQ9" s="1"/>
     </row>
     <row r="10" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -935,32 +1028,82 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AH10" s="2" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1111,7 @@
       <c r="AR10" s="1"/>
     </row>
     <row r="11" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1053,7 +1196,7 @@
       <c r="AS11" s="1"/>
     </row>
     <row r="12" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1064,7 +1207,9 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H12" s="16" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1224,9 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="14"/>
+      <c r="T12" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -1099,7 +1246,7 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1108,22 +1255,30 @@
       <c r="D13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="14"/>
+      <c r="T13" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="14"/>
@@ -1146,7 +1301,7 @@
       <c r="AQ13" s="1"/>
     </row>
     <row r="14" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="17">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1158,21 +1313,33 @@
       <c r="E14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="N14" s="12"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="14"/>
+      <c r="P14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="14"/>
+      <c r="T14" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -1193,7 +1360,7 @@
       <c r="AR14" s="1"/>
     </row>
     <row r="15" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1208,24 +1375,36 @@
       <c r="F15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
+      <c r="M15" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="N15" s="12"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="14"/>
+      <c r="P15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="14"/>
+      <c r="X15" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="14"/>
@@ -1241,7 +1420,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="2:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="17">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1259,23 +1438,33 @@
       <c r="G16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
+      <c r="M16" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R16" s="12"/>
       <c r="S16" s="14"/>
       <c r="T16" s="12"/>
       <c r="U16" s="14"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="14"/>
+      <c r="X16" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -1290,7 +1479,7 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="17">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1305,10 +1494,14 @@
       <c r="F17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="K17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1517,9 @@
       <c r="U17" s="12"/>
       <c r="V17" s="14"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="14"/>
+      <c r="X17" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="Y17" s="12"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="12"/>
@@ -1339,7 +1534,7 @@
       </c>
     </row>
     <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="17">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1351,10 +1546,14 @@
       <c r="E18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="J18" s="10" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1589,7 @@
       </c>
     </row>
     <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="17">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1399,54 +1598,80 @@
       <c r="D19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="K19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="O19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="14"/>
+      <c r="P19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="Q19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="S19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="T19" s="14"/>
+      <c r="T19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="U19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="V19" s="14"/>
+      <c r="V19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="W19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="X19" s="14"/>
+      <c r="X19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="Y19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Z19" s="14"/>
+      <c r="Z19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AA19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AC19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AD19" s="14"/>
+      <c r="AD19" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AE19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1459,13 +1684,15 @@
       </c>
     </row>
     <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="17">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1494,13 +1721,15 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
-      <c r="AG20" s="14"/>
+      <c r="AG20" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AH20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" s="17">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1512,56 +1741,84 @@
       <c r="E21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="I21" s="10" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="L21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="14"/>
+      <c r="M21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="N21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="14"/>
+      <c r="O21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="P21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="14"/>
+      <c r="S21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="T21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U21" s="14"/>
+      <c r="U21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="V21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="W21" s="14"/>
+      <c r="W21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="X21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Y21" s="14"/>
+      <c r="Y21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="Z21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AA21" s="14"/>
+      <c r="AA21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AB21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AC21" s="14"/>
+      <c r="AC21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AD21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AE21" s="14"/>
+      <c r="AE21" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="AF21" s="10" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1830,7 @@
       </c>
     </row>
     <row r="22" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="17">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
